--- a/#3_homework/Weekly Fuel Prices.xlsx
+++ b/#3_homework/Weekly Fuel Prices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/43ebdbc5d5265516/VizWiz/Makeover Monday/Data/2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/commodore64/Desktop/YZM555/#3_homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C9D7D27-57EF-AC4C-9E9C-4403AE031806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F29BEDC-8B77-4848-BE40-AFDAFAA98688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15940" xr2:uid="{A2C12D18-71FA-7444-8E11-6AF7B880616A}"/>
   </bookViews>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Return to Contents page</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Diesel (USD)</t>
   </si>
@@ -498,9 +495,9 @@
   <dimension ref="A1:J1060"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A868" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A883" sqref="A883:XFD883"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
@@ -512,13 +509,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="14" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="13" customFormat="1" ht="15" customHeight="1">
@@ -10225,9 +10222,7 @@
       <c r="C883" s="8"/>
     </row>
     <row r="884" spans="1:3" ht="15" customHeight="1">
-      <c r="A884" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="A884" s="6"/>
       <c r="C884" s="5"/>
     </row>
     <row r="885" spans="1:3" ht="15" customHeight="1">
@@ -10413,9 +10408,6 @@
     <row r="1059" ht="15" customHeight="1"/>
     <row r="1060" ht="15" customHeight="1"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A884" location="Contents!A1" display="Return to Contents page" xr:uid="{3E7ECACD-37B9-F845-81B8-17948C1041F7}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
